--- a/ExcelConfig/博彩表.xlsx
+++ b/ExcelConfig/博彩表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20025" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20025" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>GambleConfig.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博弈表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>IgnorRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博彩表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -676,22 +676,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -728,22 +728,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>7</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>9</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>10</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>11</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
